--- a/data/bw-le.xlsx
+++ b/data/bw-le.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samharper/git/nasem/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC2789D-190C-6749-8E95-9FFF111D1231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E1E6E-E5AD-9F42-9D99-635AF009A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{E5140C3A-96F0-0C4F-A246-E3829D55A717}"/>
   </bookViews>
